--- a/機能概要 (2).xlsx
+++ b/機能概要 (2).xlsx
@@ -8,15 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki\Desktop\テレワーク\todoapp_php_only\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC2A222-7B4B-460F-9253-4190BB204291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CAEF9-FC77-4D3E-A670-CC9603147D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F054C92C-FAD2-4E5D-8CCB-C8D3EF1597CF}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{F054C92C-FAD2-4E5D-8CCB-C8D3EF1597CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="2" r:id="rId1"/>
+    <sheet name="改定情報" sheetId="3" r:id="rId2"/>
+    <sheet name="機能概要" sheetId="1" r:id="rId3"/>
+    <sheet name="画面一覧" sheetId="5" r:id="rId4"/>
+    <sheet name="DB設計書" sheetId="7" r:id="rId5"/>
+    <sheet name="ファイル一覧" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">DB設計書!$A$1:$L$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ファイル一覧!$A$1:$L$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">画面一覧!$A$1:$H$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">改定情報!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">機能概要!$A$1:$H$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,70 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Todoタスクの登録機能</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Todoタスクの一覧表示機能</t>
-    <rPh sb="8" eb="12">
-      <t>イチランヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Todoタスクの編集機能</t>
-    <rPh sb="8" eb="10">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Todoタスクの詳細表示機能</t>
-    <rPh sb="8" eb="10">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Todoタスクの削除機能</t>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Todoタスクのステータス変更機能</t>
-    <rPh sb="13" eb="15">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>Todoアプリ PHP only version</t>
     <phoneticPr fontId="1"/>
@@ -118,6 +65,745 @@
     <t>作成者：〇〇</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・POSTリクエスト時、データをDBに登録し、一覧表示機能にリダイレクト</t>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GETリクエスト時、タスク登録フォームを画面出力</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・指定した優先度によって表示背景色を変更</t>
+    <rPh sb="1" eb="3">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最優先：赤色、優先：ピンク、なし：白</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GETデータで指定されたタスクの全情報を画面出力</t>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ゼンジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GETデータで指定されたタスクの情報更新フォームを画面出力</t>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・POSTリクエスト時、データを対象データを更新</t>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GETデータで指定されたタスクを削除</t>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GETデータで指定されたタスクのstatusカラムを1に更新</t>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Todo アプリPHP Only version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉岡優樹</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシオカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改定情報</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改定内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初版</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・DBに初期サンプルデータを挿入する機能</t>
+    <rPh sb="4" eb="6">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・tasksテーブルからstatus=0のレコードを全件取得し、画面出力</t>
+    <rPh sb="26" eb="28">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下情報のインプットフォームを表示する画面</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1、title　2、detail　3、priority　4、period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ送信先：addTasks.controller.php</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Todoタスクの一覧画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ファイル名：list.view.php）</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Todoタスクのフォーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ファイル名：add.view.php）</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Todoタスクの詳細表示画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ファイル名：detail.view.php)</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tasksテーブルのstatus=0のレコードを全件取得し、画面出力</t>
+    <rPh sb="24" eb="26">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Todoタスクの編集フォーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ファイル名：edit.view.php)</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インプット情報は1と同様</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB設計書</t>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>todoapp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名：tasks</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字コード：utf8</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INT </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT, UNSIGNED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約</t>
+    <rPh sb="0" eb="2">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFAULT=0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Todoタスクの登録機能(ファイル名：addTasks.controller.php)</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Todoタスクの一覧表示機能(ファイル名：allTasks.controller.php)</t>
+    <rPh sb="8" eb="12">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Todoタスクの詳細表示機能(ファイル名：taskDetail.controller.php)</t>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Todoタスクの編集機能(ファイル名：editTasks.controller.php)</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Todoタスクの削除機能(ファイル名：deleteTasks.controller.php)</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Todoタスクのステータス変更機能(ファイル：4番のファイルを共用)</t>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB初期データ挿入機能(ファイル名：initDB.php)</t>
+    <rPh sb="2" eb="4">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controller/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addTasks.controller.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allTasks.controller.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleteTasks.controller.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editTasks.controller.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taskDetail.controller.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>db_info.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースの接続情報を格納</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>taskModel.php　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DB操作に関する処理を格納</t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add.view.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.view.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit.view.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.view.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>initDB.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル一覧にinitDB.phpファイルを追加</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,7 +812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +853,57 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +913,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -264,17 +1001,677 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,32 +1692,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,257 +2080,2058 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B55F6F3-7847-43C7-978C-CC141BFE7A90}">
-  <dimension ref="B2:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FAD7BC-95A3-4A1D-9D8E-77638FEC44CE}">
+  <dimension ref="B4:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="6" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.94921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="2:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="17.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="F5" s="14">
-        <v>43924</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.85">
-      <c r="B16" s="8">
-        <v>4</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B4" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="12" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B13" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.85">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.85">
-      <c r="B18" s="8">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.85">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.85">
-      <c r="B20" s="8">
-        <v>6</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.85">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.85">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.85">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.85">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.85">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.85">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+    </row>
+    <row r="19" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B27" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B6:G7"/>
-    <mergeCell ref="B2:G3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B13:G19"/>
+    <mergeCell ref="B4:G10"/>
+    <mergeCell ref="B27:G33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9BF760-CC29-47A6-9F9B-847DEA1D87B8}">
+  <dimension ref="B1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+    </row>
+    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
+    </row>
+    <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="2:8" ht="18.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B8" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="74"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B9" s="101">
+        <v>43924</v>
+      </c>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B10" s="107">
+        <v>43924</v>
+      </c>
+      <c r="C10" s="108"/>
+      <c r="D10" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:H5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B55F6F3-7847-43C7-978C-CC141BFE7A90}">
+  <dimension ref="B2:H33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+    </row>
+    <row r="4" spans="2:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" ht="17.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="F5" s="8">
+        <v>43924</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B6" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+    </row>
+    <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B11" s="2"/>
+      <c r="C11" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="2:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B12" s="2"/>
+      <c r="C12" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+    </row>
+    <row r="13" spans="2:8" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B13" s="2"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B17" s="2"/>
+      <c r="C17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B20" s="2"/>
+      <c r="C20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B22" s="2"/>
+      <c r="C22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B23" s="2"/>
+      <c r="C23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B28" s="2">
+        <v>6</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B29" s="2"/>
+      <c r="C29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B31" s="2">
+        <v>7</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B32" s="2"/>
+      <c r="C32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B6:G7"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47B1E76-6E64-4566-91AB-551DCF4AC076}">
+  <dimension ref="B2:H33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+    </row>
+    <row r="4" spans="2:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" ht="17.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="F5" s="8">
+        <v>43924</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B6" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+    </row>
+    <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B11" s="2"/>
+      <c r="C11" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="2:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B12" s="2"/>
+      <c r="C12" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B13" s="2"/>
+      <c r="C13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.85">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B20" s="2"/>
+      <c r="C20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B21" s="2"/>
+      <c r="C21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B22" s="2"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B23" s="2"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B25" s="2"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B28" s="2"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B29" s="2"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B31" s="2"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="B32" s="2"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="B6:G7"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A841146F-97FB-46DD-89DF-846DA1154221}">
+  <dimension ref="B2:J33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="4" max="4" width="9.37890625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.90234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="C2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+    </row>
+    <row r="4" spans="2:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" ht="17.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="H5" s="8">
+        <v>43924</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B6" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+    </row>
+    <row r="8" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B8" s="31"/>
+      <c r="C8" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="96"/>
+    </row>
+    <row r="10" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B10" s="26"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" ht="17.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B12" s="27"/>
+      <c r="C12" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B13" s="27"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="97"/>
+      <c r="H13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B14" s="27"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="98"/>
+      <c r="H14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B15" s="27"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="92"/>
+      <c r="H15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B16" s="27"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="92"/>
+      <c r="H16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B17" s="27"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="92"/>
+      <c r="H17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B18" s="27"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="92"/>
+      <c r="H18" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B19" s="27"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="92"/>
+      <c r="H19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B20" s="27"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="93"/>
+      <c r="H20" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B21" s="27"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B22" s="27"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B23" s="27"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B24" s="27"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B25" s="27"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B26" s="27"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B27" s="27"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B28" s="27"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B29" s="27"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B30" s="27"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B31" s="27"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B32" s="27"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B33" s="28"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99258D6E-1614-4935-89EA-D03ACEF599B1}">
+  <dimension ref="B2:J31"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="4" max="4" width="9.37890625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.90234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="C2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+    </row>
+    <row r="4" spans="2:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" ht="17.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="H5" s="8">
+        <v>43924</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B6" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+    </row>
+    <row r="8" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B8" s="26"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B9" s="27"/>
+      <c r="C9" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B10" s="27"/>
+      <c r="C10" s="46"/>
+      <c r="E10" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B11" s="27"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B12" s="27"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B13" s="27"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B14" s="27"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B15" s="27"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B16" s="27"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B17" s="27"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B18" s="27"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B19" s="27"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B20" s="27"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B21" s="27"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B22" s="27"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B23" s="27"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B24" s="27"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B25" s="27"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B26" s="27"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B27" s="27"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B28" s="27"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" ht="18.3" x14ac:dyDescent="0.85">
+      <c r="B29" s="27"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.85">
+      <c r="B30" s="27"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B31" s="28"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>